--- a/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_-75%.xlsx
+++ b/SensitivityAnalysisSpreadSheets/Ordinance Arm Time/OrdinanceArmTime10 aircraft 9_1_-75%.xlsx
@@ -71742,6 +71742,9 @@
           <t>Run 1</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>14.57383333333333</v>
+      </c>
       <c r="C2" t="n">
         <v>488.3466666666667</v>
       </c>
@@ -71797,6 +71800,9 @@
           <t>Run 2</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>13.23766666666667</v>
+      </c>
       <c r="C3" t="n">
         <v>417.3638888888888</v>
       </c>
@@ -71852,6 +71858,9 @@
           <t>Run 3</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>13.519</v>
+      </c>
       <c r="C4" t="n">
         <v>455.6955555555555</v>
       </c>
@@ -71907,6 +71916,9 @@
           <t>Run 4</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>12.4295</v>
+      </c>
       <c r="C5" t="n">
         <v>423.6788888888889</v>
       </c>
@@ -71962,6 +71974,9 @@
           <t>Run 5</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>13.12383333333333</v>
+      </c>
       <c r="C6" t="n">
         <v>416.9044444444445</v>
       </c>
@@ -72017,6 +72032,9 @@
           <t>Run 6</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>12.095</v>
+      </c>
       <c r="C7" t="n">
         <v>429.7522222222222</v>
       </c>
@@ -72072,6 +72090,9 @@
           <t>Run 7</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>13.57583333333333</v>
+      </c>
       <c r="C8" t="n">
         <v>441.5133333333333</v>
       </c>
@@ -72127,6 +72148,9 @@
           <t>Run 8</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>12.83383333333333</v>
+      </c>
       <c r="C9" t="n">
         <v>438.6127777777778</v>
       </c>
@@ -72182,6 +72206,9 @@
           <t>Run 9</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>13.19733333333333</v>
+      </c>
       <c r="C10" t="n">
         <v>431.48</v>
       </c>
@@ -72237,6 +72264,9 @@
           <t>Run 10</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>12.8925</v>
+      </c>
       <c r="C11" t="n">
         <v>427.2622222222222</v>
       </c>
@@ -72292,6 +72322,9 @@
           <t>Run 11</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>11.8045</v>
+      </c>
       <c r="C12" t="n">
         <v>422.6855555555555</v>
       </c>
@@ -72347,6 +72380,9 @@
           <t>Run 12</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>12.04116666666667</v>
+      </c>
       <c r="C13" t="n">
         <v>455.2266666666667</v>
       </c>
@@ -72402,6 +72438,9 @@
           <t>Run 13</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>12.05783333333333</v>
+      </c>
       <c r="C14" t="n">
         <v>394.4138888888889</v>
       </c>
@@ -72457,6 +72496,9 @@
           <t>Run 14</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>12.6285</v>
+      </c>
       <c r="C15" t="n">
         <v>422.7772222222222</v>
       </c>
@@ -72512,6 +72554,9 @@
           <t>Run 15</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>13.51166666666667</v>
+      </c>
       <c r="C16" t="n">
         <v>439.0222222222222</v>
       </c>
@@ -72567,6 +72612,9 @@
           <t>Run 16</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>12.04766666666667</v>
+      </c>
       <c r="C17" t="n">
         <v>404.3855555555556</v>
       </c>
@@ -72622,6 +72670,9 @@
           <t>Run 17</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>13.01683333333333</v>
+      </c>
       <c r="C18" t="n">
         <v>416.3066666666667</v>
       </c>
@@ -72677,6 +72728,9 @@
           <t>Run 18</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>12.8255</v>
+      </c>
       <c r="C19" t="n">
         <v>430.0288888888889</v>
       </c>
@@ -72732,6 +72786,9 @@
           <t>Run 19</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>13.60466666666667</v>
+      </c>
       <c r="C20" t="n">
         <v>472.2855555555556</v>
       </c>
@@ -72787,6 +72844,9 @@
           <t>Run 20</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>12.76516666666667</v>
+      </c>
       <c r="C21" t="n">
         <v>432.3061111111111</v>
       </c>
@@ -72842,6 +72902,9 @@
           <t>Run 21</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>13.52416666666667</v>
+      </c>
       <c r="C22" t="n">
         <v>430.5261111111112</v>
       </c>
@@ -72897,6 +72960,9 @@
           <t>Run 22</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>13.18433333333333</v>
+      </c>
       <c r="C23" t="n">
         <v>438.7149999999999</v>
       </c>
@@ -72952,6 +73018,9 @@
           <t>Run 23</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>12.562</v>
+      </c>
       <c r="C24" t="n">
         <v>435.1244444444444</v>
       </c>
@@ -73007,6 +73076,9 @@
           <t>Run 24</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>13.30516666666667</v>
+      </c>
       <c r="C25" t="n">
         <v>427.9933333333333</v>
       </c>
@@ -73062,6 +73134,9 @@
           <t>Run 25</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>14.40316666666667</v>
+      </c>
       <c r="C26" t="n">
         <v>434.625</v>
       </c>
@@ -73117,6 +73192,9 @@
           <t>Run 26</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>12.957</v>
+      </c>
       <c r="C27" t="n">
         <v>430.41</v>
       </c>
@@ -73172,6 +73250,9 @@
           <t>Run 27</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>13.39533333333333</v>
+      </c>
       <c r="C28" t="n">
         <v>455.8883333333334</v>
       </c>
@@ -73227,6 +73308,9 @@
           <t>Run 28</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>13.77316666666667</v>
+      </c>
       <c r="C29" t="n">
         <v>421.2277777777778</v>
       </c>
@@ -73282,6 +73366,9 @@
           <t>Run 29</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>12.99733333333333</v>
+      </c>
       <c r="C30" t="n">
         <v>430.3349999999999</v>
       </c>
@@ -73336,6 +73423,9 @@
         <is>
           <t>Run 30</t>
         </is>
+      </c>
+      <c r="B31" t="n">
+        <v>13.723</v>
       </c>
       <c r="C31" t="n">
         <v>442.5988888888888</v>
